--- a/va_facility_data_2025-02-20/Miami Flagler VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Miami%20Flagler%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Miami Flagler VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Miami%20Flagler%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R24cbc6f137e743069293c60b662b13b8"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc15dd51e1d4848e28693601825f807e0"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6303156d703b4fff8808fd42cf8578b5"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rd4c0acde60714ebaa8af882cb1fbb54f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R41d2c09d02224d649eafc0f6d53f325b"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R37a796d23a0e4052894c40917d1cad48"/>
   </x:sheets>
 </x:workbook>
 </file>
